--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\mac\Home\Documents\UiPath\PWC-Purchases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD80BAF1-2D14-4487-B562-5A1FCCF815AA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD297B58-4B0E-475E-8CE6-B305A69D5878}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9218" xr2:uid="{CC834EF1-42AA-4737-8420-7857FAEAC985}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Название компании</t>
   </si>
@@ -69,7 +69,10 @@
     <t>Да</t>
   </si>
   <si>
-    <t>тут должна быть поисковая строка</t>
+    <t>http://zakupki.gov.ru/epz/orderplan/extendedsearch/results.html?morphology=on&amp;openMode=USE_DEFAULT_PARAMS&amp;searchType=false&amp;fz44=on&amp;fz223=on&amp;customerTitle=%D0%93%D0%9E%D0%A1%D0%A3%D0%94%D0%90%D0%A0%D0%A1%D0%A2%D0%92%D0%95%D0%9D%D0%9D%D0%9E%D0%95+%D0%91%D0%AE%D0%94%D0%96%D0%95%D0%A2%D0%9D%D0%9E%D0%95+%D0%A3%D0%A7%D0%A0%D0%95%D0%96%D0%94%D0%95%D0%9D%D0%98%D0%95+%D0%97%D0%94%D0%A0%D0%90%D0%92%D0%9E%D0%9E%D0%A5%D0%A0%D0%90%D0%9D%D0%95%D0%9D%D0%98%D0%AF+%D0%A0%D0%95%D0%A1%D0%9F%D0%A3%D0%91%D0%9B%D0%98%D0%9A%D0%98+%D0%90%D0%94%D0%AB%D0%93%D0%95%D0%AF+%22%D0%90%D0%94%D0%AB%D0%93%D0%95%D0%99%D0%A1%D0%9A%D0%90%D0%AF+%D0%A0%D0%95%D0%A1%D0%9F%D0%A3%D0%91%D0%9B%D0%98%D0%9A%D0%90%D0%9D%D0%A1%D0%9A%D0%90%D0%AF+%D0%9A%D0%9B%D0%98%D0%9D%D0%98%D0%A7%D0%95%D0%A1%D0%9A%D0%90%D0%AF+%D0%98%D0%9D%D0%A4%D0%95%D0%9A%D0%A6%D0%98%D0%9E%D0%9D%D0%9D%D0%90%D0%AF+%D0%91%D0%9E%D0%9B%D0%AC%D0%9D%D0%98%D0%A6%D0%90%22&amp;customerCode=03762000148&amp;customerFz94id=1736665&amp;customerFz223id=58171&amp;regionDeleted=false&amp;actualPeriodStart=01.01.2019&amp;actualPeriodEnd=31.12.2019&amp;structured=true&amp;sortBy=BY_MODIFY_DATE&amp;placementRangeMonthFrom=-1&amp;placementRangeMonthTo=-1&amp;currencyId=-1&amp;currencyTotalId=-1&amp;currencySMBId=-1&amp;executionRangeMonthFrom=-1&amp;executionRangeMonthTo=-1&amp;pageNumber=1&amp;sortDirection=false&amp;recordsPerPage=_10</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/orderplan/extendedsearch/results.html?morphology=on&amp;openMode=USE_DEFAULT_PARAMS&amp;searchType=false&amp;fz44=on&amp;fz223=on&amp;customerTitle=%D0%9C%D0%A3%D0%9D%D0%98%D0%A6%D0%98%D0%9F%D0%90%D0%9B%D0%AC%D0%9D%D0%9E%D0%95+%D0%90%D0%92%D0%A2%D0%9E%D0%9D%D0%9E%D0%9C%D0%9D%D0%9E%D0%95+%D0%9E%D0%91%D0%A9%D0%95%D0%9E%D0%91%D0%A0%D0%90%D0%97%D0%9E%D0%92%D0%90%D0%A2%D0%95%D0%9B%D0%AC%D0%9D%D0%9E%D0%95+%D0%A3%D0%A7%D0%A0%D0%95%D0%96%D0%94%D0%95%D0%9D%D0%98%D0%95+%22%D0%A1%D0%A0%D0%95%D0%94%D0%9D%D0%AF%D0%AF+%D0%9E%D0%91%D0%A9%D0%95%D0%9E%D0%91%D0%A0%D0%90%D0%97%D0%9E%D0%92%D0%90%D0%A2%D0%95%D0%9B%D0%AC%D0%9D%D0%90%D0%AF+%D0%A8%D0%9A%D0%9E%D0%9B%D0%90+%E2%84%96+77+%D0%A1+%D0%A3%D0%93%D0%9B%D0%A3%D0%91%D0%9B%D0%95%D0%9D%D0%9D%D0%AB%D0%9C+%D0%98%D0%97%D0%A3%D0%A7%D0%95%D0%9D%D0%98%D0%95%D0%9C+%D0%90%D0%9D%D0%93%D0%9B%D0%98%D0%99%D0%A1%D0%9A%D0%9E%D0%93%D0%9E+%D0%AF%D0%97%D0%AB%D0%9A%D0%90%22+%D0%93.%D0%9F%D0%95%D0%A0%D0%9C%D0%98&amp;customerCode=03563000083&amp;customerFz94id=785202&amp;customerFz223id=180825&amp;regionDeleted=false&amp;actualPeriodStart=01.01.2019&amp;actualPeriodEnd=31.12.2019&amp;structured=true&amp;sortBy=BY_MODIFY_DATE&amp;placementRangeMonthFrom=-1&amp;placementRangeMonthTo=-1&amp;currencyId=-1&amp;currencyTotalId=-1&amp;currencySMBId=-1&amp;executionRangeMonthFrom=-1&amp;executionRangeMonthTo=-1&amp;pageNumber=1&amp;sortDirection=false&amp;recordsPerPage=_10</t>
   </si>
 </sst>
 </file>
@@ -518,7 +521,7 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\mac\Home\Documents\UiPath\PWC-Purchases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\UiPath\PWC-Purchases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD297B58-4B0E-475E-8CE6-B305A69D5878}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E064F8D1-5E0E-417C-A846-83B5B19BA059}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9218" xr2:uid="{CC834EF1-42AA-4737-8420-7857FAEAC985}"/>
   </bookViews>
@@ -89,12 +89,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,9 +121,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -434,91 +448,91 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.9296875" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.3984375" customWidth="1"/>
-    <col min="4" max="6" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.9296875" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.3984375" customWidth="1"/>
+    <col min="5" max="6" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>4823006703</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>43537</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>43655</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>7736050003</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>43116</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>43486</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>105020580</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>5904082422</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
